--- a/ComplianceData.xlsx
+++ b/ComplianceData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Department</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Score</t>
   </si>
   <si>
-    <t>Questions</t>
-  </si>
-  <si>
     <t>Date Completed</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>1/2</t>
   </si>
   <si>
-    <t>[{"type":"boolean","name":"question1","title":"Has the Company rolled out a Supply Chain Management Framework that contains detailed process flows, thresholds as well as accountabilities?","isRequired":true,"response":true},{"type":"comment","name":"question1a","visibleIf":"{question1} = false","title":"Reason","isRequired":true,"response":""},{"type":"boolean","name":"question2","title":"Does the Company have an approved suppliers list for goods and services?","isRequired":true,"response":false},{"type":"comment","name":"question2a","visibleIf":"{question2} = false","title":"Reason","isRequired":true,"response":"i dont know"}]</t>
-  </si>
-  <si>
     <t>Legal Department</t>
   </si>
   <si>
@@ -52,16 +46,10 @@
     <t>0/1</t>
   </si>
   <si>
-    <t>[{"type":"boolean","name":"question1","title":"have you taken time out today?","isRequired":true,"response":false},{"type":"comment","name":"question1a","visibleIf":"{question1} = false","title":"Reason","isRequired":true,"response":"busy with morton"},{"type":"text","name":"question2","title":"have you prepared yada yada","isRequired":true,"response":"yes. and emailed to morton"}]</t>
-  </si>
-  <si>
     <t>PPWE</t>
   </si>
   <si>
     <t>4/4</t>
-  </si>
-  <si>
-    <t>[{"type":"boolean","name":"question1","title":"Has the Company rolled out a Supply Chain Management Framework that contains detailed process flows, thresholds as well as accountabilities?","isRequired":true,"response":true},{"type":"comment","name":"question1a","visibleIf":"{question1} = false","title":"Reason","isRequired":true,"response":""},{"type":"boolean","name":"question2","title":"Does the Company have an approved suppliers list for goods and services?","isRequired":true,"response":true},{"type":"comment","name":"question2a","visibleIf":"{question2} = false","title":"Reason","isRequired":true,"response":""},{"type":"boolean","name":"question3","title":"Is 10 equal to X","isRequired":true,"response":true},{"type":"comment","name":"question3a","visibleIf":"{question3} = false","title":"Reason","isRequired":true,"response":""},{"type":"text","name":"question4","title":"How many letter are in the word hundred","isRequired":true,"response":"59"},{"type":"boolean","name":"question5","title":"Do you have a tax clearance certificate ","isRequired":true,"response":true},{"type":"comment","name":"question5a","visibleIf":"{question5} = false","title":"Reason","isRequired":true,"response":""}]</t>
   </si>
 </sst>
 </file>
@@ -464,13 +452,13 @@
   <sheetPr>
     <tabColor rgb="FFC0000"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
+    <col min="1" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,58 +474,46 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45073.91666666667</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45074.91666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2">
-        <v>45073.91666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2">
-        <v>45074.91666666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="2">
         <v>45080.91666666667</v>
       </c>
     </row>

--- a/ComplianceData.xlsx
+++ b/ComplianceData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>Department</t>
   </si>
@@ -28,28 +28,16 @@
     <t>Date Completed</t>
   </si>
   <si>
-    <t>Legal</t>
-  </si>
-  <si>
-    <t>mortonmab@gmail.com</t>
-  </si>
-  <si>
-    <t>1/2</t>
-  </si>
-  <si>
-    <t>Legal Department</t>
-  </si>
-  <si>
-    <t>nanzelelo.ndlovu@nust.ac.zw</t>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>ctcheuka@gmail.com</t>
   </si>
   <si>
     <t>0/1</t>
   </si>
   <si>
-    <t>PPWE</t>
-  </si>
-  <si>
-    <t>4/4</t>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -452,7 +440,7 @@
   <sheetPr>
     <tabColor rgb="FFC0000"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="5" width="20" customWidth="1"/>
@@ -486,35 +474,63 @@
         <v>7</v>
       </c>
       <c r="E2" s="2">
-        <v>45073.91666666667</v>
+        <v>45111.91666666667</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="2">
-        <v>45074.91666666667</v>
+        <v>45111.91666666667</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2">
-        <v>45080.91666666667</v>
+        <v>45111.91666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45111.91666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45111.91666666667</v>
       </c>
     </row>
   </sheetData>
